--- a/Project Plan & Technical debt.xlsx
+++ b/Project Plan & Technical debt.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
   <si>
     <t>integration test</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Client Server commonication</t>
   </si>
   <si>
-    <t>Send data to client when react is ready every 4 second via HTTP transport. Code should be flexable/maintainable to change quickly to any protocol like TCP</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CSS -StyleSheet</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>Class  that call System USB package and  get  info to array/Jason</t>
   </si>
   <si>
-    <t xml:space="preserve">Write Stylesheet - CSS file </t>
-  </si>
-  <si>
     <t>Document that describe how &amp; what to deply to have the SW package working</t>
   </si>
   <si>
@@ -438,15 +432,6 @@
     <t>Server  LLD and development</t>
   </si>
   <si>
-    <t>2 -3 weeks (depends on target platforms, security considerations, etc)</t>
-  </si>
-  <si>
-    <t>Technical Document describing client functionality including screen mockup , develop react side, stilesheet etc and UT</t>
-  </si>
-  <si>
-    <t>Technical document describing server business logic, configuration, integration and data objects involved.  Develop service ,data,api and  third pary services calls and UT</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -469,6 +454,18 @@
   </si>
   <si>
     <t>Infra</t>
+  </si>
+  <si>
+    <t>Send data to client when react is ready every 4 second via HTTP transport. Code should be flexable/maintainable to change quickly to any protocol like TCP  "e.g. by using WebSockets"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSS Design</t>
+  </si>
+  <si>
+    <t>Technical Document describing client functionality including screen mockup , develop react side, write CSS etc and UT</t>
+  </si>
+  <si>
+    <t>Technical document describing server business logic, configuration, integration and data objects involved.  Develop service ,data,api and  third pary services calls (implement  webserver like  Apache, NGNIX, Other) and UT</t>
   </si>
 </sst>
 </file>
@@ -955,7 +952,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1011,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
@@ -1041,18 +1038,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D3" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1064,25 +1061,23 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" ht="58">
+    <row r="4" spans="1:16" ht="70">
       <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D4" s="25">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>138</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="27"/>
       <c r="F4" s="25"/>
       <c r="G4" s="24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -1099,16 +1094,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D5" s="24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24" t="s">
@@ -1129,20 +1124,20 @@
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -1159,10 +1154,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -1255,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>54</v>
@@ -1291,7 +1286,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
@@ -1670,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1751,10 +1746,10 @@
         <v>96</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28">
@@ -1765,7 +1760,7 @@
         <v>92</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -1777,7 +1772,7 @@
         <v>94</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -1789,7 +1784,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -1821,7 +1816,7 @@
         <v>90</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -1833,7 +1828,7 @@
         <v>93</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1854,10 +1849,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -1866,10 +1861,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1905,7 +1900,7 @@
         <v>102</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -1927,7 +1922,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -1939,7 +1934,7 @@
         <v>104</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="16"/>
     </row>
@@ -1948,10 +1943,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -1960,10 +1955,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -1972,10 +1967,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -1984,10 +1979,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="16"/>
     </row>
@@ -1996,10 +1991,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G24" s="16"/>
     </row>
@@ -2008,10 +2003,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G25" s="16"/>
     </row>

--- a/Project Plan & Technical debt.xlsx
+++ b/Project Plan & Technical debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="High level plan" sheetId="4" r:id="rId1"/>
@@ -417,9 +417,6 @@
     <t>Fix bugs if any</t>
   </si>
   <si>
-    <t xml:space="preserve">align server/service layer/data layer architrcure ,   CDN  for better availability/Performance ? , </t>
-  </si>
-  <si>
     <t>HLD + Review</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>Technical document describing server business logic, configuration, integration and data objects involved.  Develop service ,data,api and  third pary services calls (implement  webserver like  Apache, NGNIX, Other) and UT</t>
+  </si>
+  <si>
+    <t>align server/service layer/data layer architrcure ,   CDN  for better availability/Performance ? ,  implement  webserver like  Apache, NGNIX, Other</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>85</v>
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
@@ -1038,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="25">
         <v>5</v>
@@ -1049,7 +1049,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1066,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="25">
         <v>7</v>
@@ -1077,7 +1077,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="25"/>
       <c r="G4" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -1094,16 +1094,16 @@
         <v>16</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>137</v>
       </c>
       <c r="D5" s="24">
         <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24" t="s">
@@ -1124,7 +1124,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>128</v>
@@ -1133,11 +1133,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O7" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1238,7 +1238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31">
+    <row r="2" spans="1:7" ht="46.5">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>54</v>
@@ -1665,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
@@ -1864,7 +1864,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1922,7 +1922,7 @@
         <v>105</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="16"/>
     </row>

--- a/Project Plan & Technical debt.xlsx
+++ b/Project Plan & Technical debt.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="High level plan" sheetId="4" r:id="rId1"/>
     <sheet name="Technical debt tasks" sheetId="1" r:id="rId2"/>
-    <sheet name="Activity-tasks map list" sheetId="3" r:id="rId3"/>
+    <sheet name="&quot;Activity-tasks map list&quot;" sheetId="3" r:id="rId3"/>
     <sheet name="TD category" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
   <si>
     <t>integration test</t>
   </si>
@@ -69,55 +69,19 @@
     <t>Requirements Debt</t>
   </si>
   <si>
-    <t>Poorly written code that can be found as a problem in the source code, requires refactoring and violates best programming practices or programming rules. Examples of code debt are code duplication, over-complex code, bad style that reduces readability, and poorly organized logic</t>
-  </si>
-  <si>
-    <t>Violations and shortcuts in the principles of good design that underfocus on qualities such as maintainability and adaptability</t>
-  </si>
-  <si>
-    <t>Sub-optimal solutions and bad decisions in software architecture, which compromise internal quality aspects, such as maintainability, performance, robustness, modularity etc. In addition, architecture debt can be a solution that becomes sub-optimal when technologies</t>
-  </si>
-  <si>
-    <t>Debt that happens in the environment of the application, which can include development, hardware, infrastructure, and supportingrelated challenges; for example, manual processes that could be automated to increase productivity, or postponement of upgrades to infrastructures and components.</t>
-  </si>
-  <si>
-    <t>Missing, inadequate, insufficient, incomplete, or outdated documentation found in any aspect of software development.</t>
-  </si>
-  <si>
-    <t>Shortcuts in testing such as lack of unit tests, integration tests, acceptance tests, written test scripts, code coverage, or the number of test cases being completed.</t>
-  </si>
-  <si>
-    <t>The distance between optimal requirements specification and actual system implementation, for example, requirements that are only partially implemented.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Build Debt </t>
   </si>
   <si>
-    <t>Flaws in a software system built process, which makes it overly complex, time consuming, unnecessarily slow, and difficult.</t>
-  </si>
-  <si>
-    <t>Sub-optimal configuration of development-related processes, activities, technologies, supporting tools etc. Delays upgrades and infrastructure fixes, which have an effect on team productivity.</t>
-  </si>
-  <si>
     <t>Defect Debt</t>
   </si>
   <si>
-    <t>Defects, bugs, or failures found in software, which are often identified by testing activities or bug tracking systems.</t>
-  </si>
-  <si>
     <t>Test Automation Debt</t>
   </si>
   <si>
-    <t>Lack of work involved in automating tests to support continuous integration and faster development cycles.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code Debt </t>
   </si>
   <si>
     <t xml:space="preserve">Infrastructure Debt </t>
-  </si>
-  <si>
-    <t>Category Description</t>
   </si>
   <si>
     <t>code review  by expert</t>
@@ -952,7 +916,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -970,37 +934,37 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28">
@@ -1008,20 +972,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" s="24">
         <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="23"/>
@@ -1038,10 +1002,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="25">
         <v>5</v>
@@ -1049,7 +1013,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1066,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>146</v>
       </c>
       <c r="D4" s="25">
         <v>7</v>
@@ -1077,7 +1041,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="25"/>
       <c r="G4" s="24" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -1094,20 +1058,20 @@
         <v>16</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D5" s="24">
         <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1124,20 +1088,20 @@
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -1154,10 +1118,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -1202,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="O7" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
@@ -1235,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="46.5">
@@ -1244,19 +1208,19 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31">
@@ -1265,19 +1229,19 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5">
@@ -1286,19 +1250,19 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="46.5">
@@ -1313,13 +1277,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5">
@@ -1328,19 +1292,19 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31">
@@ -1349,19 +1313,19 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5">
@@ -1370,19 +1334,19 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="31">
@@ -1391,19 +1355,19 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5">
@@ -1412,19 +1376,19 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.5">
@@ -1433,19 +1397,19 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5">
@@ -1454,19 +1418,19 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.5">
@@ -1475,7 +1439,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>13</v>
@@ -1484,10 +1448,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.5">
@@ -1496,19 +1460,19 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="31">
@@ -1517,19 +1481,19 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="46.5">
@@ -1538,19 +1502,19 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.5">
@@ -1666,7 +1630,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1684,37 +1648,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28">
@@ -1722,16 +1686,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
@@ -1743,13 +1707,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28">
@@ -1757,10 +1721,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -1769,10 +1733,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -1781,10 +1745,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -1793,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C7" s="21"/>
       <c r="G7" s="16"/>
@@ -1803,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C8" s="21"/>
       <c r="G8" s="16"/>
@@ -1813,10 +1777,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -1825,10 +1789,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1837,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -1849,10 +1813,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G12" s="16"/>
     </row>
@@ -1861,10 +1825,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1873,10 +1837,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G14" s="16"/>
     </row>
@@ -1885,10 +1849,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -1897,10 +1861,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -1909,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C17" s="17"/>
       <c r="G17" s="16"/>
@@ -1919,10 +1883,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -1931,10 +1895,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G19" s="16"/>
     </row>
@@ -1943,10 +1907,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -1955,10 +1919,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -1967,10 +1931,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -1979,10 +1943,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G23" s="16"/>
     </row>
@@ -1991,10 +1955,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G24" s="16"/>
     </row>
@@ -2003,26 +1967,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G25" s="16"/>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2032,112 +1996,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan & Technical debt.xlsx
+++ b/Project Plan & Technical debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="High level plan" sheetId="4" r:id="rId1"/>
@@ -420,9 +420,6 @@
     <t>Send data to client when react is ready every 4 second via HTTP transport. Code should be flexable/maintainable to change quickly to any protocol like TCP  "e.g. by using WebSockets"</t>
   </si>
   <si>
-    <t xml:space="preserve"> CSS Design</t>
-  </si>
-  <si>
     <t>Technical Document describing client functionality including screen mockup , develop react side, write CSS etc and UT</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
   </si>
   <si>
     <t>align server/service layer/data layer architrcure ,   CDN  for better availability/Performance ? ,  implement  webserver like  Apache, NGNIX, Other</t>
+  </si>
+  <si>
+    <t>write css</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="25">
         <v>5</v>
@@ -1033,7 +1033,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="25">
         <v>7</v>
@@ -1166,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="O7" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
@@ -1214,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>42</v>
@@ -1629,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1828,7 +1828,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1998,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/Project Plan & Technical debt.xlsx
+++ b/Project Plan & Technical debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="High level plan" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>integration test</t>
   </si>
@@ -333,9 +333,6 @@
     <t>UAT</t>
   </si>
   <si>
-    <t>Production Deployment</t>
-  </si>
-  <si>
     <t>Production bug fixing</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>Support customer testing and bug fixing</t>
   </si>
   <si>
-    <t>perform system testing/versioning/product backward competability etc..</t>
-  </si>
-  <si>
     <t>User expiriance and Usability</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>Document that describe how &amp; what to deply to have the SW package working</t>
   </si>
   <si>
-    <t>Deploy SW in production enviroment</t>
-  </si>
-  <si>
     <t>Fix bugs if any</t>
   </si>
   <si>
@@ -396,15 +387,9 @@
     <t>QA</t>
   </si>
   <si>
-    <t>System,integration,Performance and security testing</t>
-  </si>
-  <si>
     <t>assuming minimum browser requirements are set (e.g. should not work with Internet Explorer 4...), and Servers have also min spec</t>
   </si>
   <si>
-    <t>packaging + deployment 1+2 days (like an installer, but just for nodejs)</t>
-  </si>
-  <si>
     <t>write installer for nodejs</t>
   </si>
   <si>
@@ -430,6 +415,36 @@
   </si>
   <si>
     <t>write css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packaging + deployment 1+2 days </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deployment</t>
+  </si>
+  <si>
+    <t>Document that describe how &amp; what to deply to have the SW package create devops process / ci/cd process. docker container  pipline,  system test deploy , uat deploy and prod deploy</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>infra</t>
+  </si>
+  <si>
+    <t>System,integration,Performance , testing automation and security testing</t>
+  </si>
+  <si>
+    <t>tester and developer for automation</t>
+  </si>
+  <si>
+    <t>Document that describe how &amp; what to deply to have the SW package create devops process / ci/cd process. docker container  pipline  system, test deploy , uat deploy and prod deploy (Delivery automation)</t>
+  </si>
+  <si>
+    <t>perform system testing/versioning/product backward competability ,testing automation.</t>
   </si>
 </sst>
 </file>
@@ -915,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -972,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>73</v>
@@ -981,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24" t="s">
@@ -1002,10 +1017,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D3" s="25">
         <v>5</v>
@@ -1013,7 +1028,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1030,10 +1045,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D4" s="25">
         <v>7</v>
@@ -1041,7 +1056,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="25"/>
       <c r="G4" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -1058,20 +1073,20 @@
         <v>16</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D5" s="24">
         <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1083,25 +1098,25 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" ht="29">
+    <row r="6" spans="1:16" ht="56">
       <c r="A6" s="25">
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D6" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -1118,10 +1133,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -1166,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O7" sqref="O6:O7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1214,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>42</v>
@@ -1250,7 +1265,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
@@ -1522,11 +1537,21 @@
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15.5">
       <c r="A18" s="7">
@@ -1629,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1710,10 +1735,10 @@
         <v>84</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28">
@@ -1724,7 +1749,7 @@
         <v>80</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -1736,7 +1761,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -1748,7 +1773,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="16"/>
     </row>
@@ -1780,7 +1805,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="16"/>
     </row>
@@ -1792,7 +1817,7 @@
         <v>81</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -1828,7 +1853,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1864,7 +1889,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -1886,7 +1911,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -1922,7 +1947,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -1934,7 +1959,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -1946,19 +1971,19 @@
         <v>102</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="56">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G24" s="16"/>
     </row>
@@ -1967,10 +1992,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G25" s="16"/>
     </row>

--- a/Project Plan & Technical debt.xlsx
+++ b/Project Plan & Technical debt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="High level plan" sheetId="4" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>assuming minimum browser requirements are set (e.g. should not work with Internet Explorer 4...), and Servers have also min spec</t>
   </si>
   <si>
-    <t>write installer for nodejs</t>
-  </si>
-  <si>
     <t>client/UI expert</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>perform system testing/versioning/product backward competability ,testing automation.</t>
+  </si>
+  <si>
+    <t>devops process / ci/cd process -  docker container with pipline.  system test deploy , uat deploy , prod deploy</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -940,7 +940,7 @@
     <col min="2" max="2" width="40.90625" customWidth="1"/>
     <col min="3" max="3" width="40.90625" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
@@ -1020,7 +1020,7 @@
         <v>118</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="25">
         <v>5</v>
@@ -1028,7 +1028,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="25"/>
       <c r="G3" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1048,7 +1048,7 @@
         <v>119</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="25">
         <v>7</v>
@@ -1056,7 +1056,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="25"/>
       <c r="G4" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -1076,7 +1076,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="24">
         <v>4</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1098,25 +1098,25 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" ht="56">
+    <row r="6" spans="1:16" ht="101.5">
       <c r="A6" s="25">
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="24">
         <v>4</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>42</v>
@@ -1532,25 +1532,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="62">
       <c r="A17" s="7">
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.5">
@@ -1654,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C34" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
@@ -1853,7 +1853,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1911,7 +1911,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -1959,7 +1959,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -1980,10 +1980,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="G24" s="16"/>
     </row>

--- a/Project Plan & Technical debt.xlsx
+++ b/Project Plan & Technical debt.xlsx
@@ -414,9 +414,6 @@
     <t>write css</t>
   </si>
   <si>
-    <t xml:space="preserve">packaging + deployment 1+2 days </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Deployment</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>devops process / ci/cd process -  docker container with pipline.  system test deploy , uat deploy , prod deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packaging + deployment </t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1076,7 +1076,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="24">
         <v>4</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1103,16 +1103,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="24">
         <v>4</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="24" t="s">
@@ -1538,19 +1538,19 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.5">
@@ -1959,7 +1959,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -1980,10 +1980,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="G24" s="16"/>
     </row>
